--- a/biology/Botanique/Excoecaria/Excoecaria.xlsx
+++ b/biology/Botanique/Excoecaria/Excoecaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Excoecaria est un genre de plantes à fleurs de la famille des Euphorbiaceae, comprenant une quarantaine d'espèces d'arbres et d'arbustes, réparties sur les régions tropicales d'Afrique, d'Asie et d'Océanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition du genre recouvre les régions tropicales d'Afrique, d'Asie et d'Océanie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du genre recouvre les régions tropicales d'Afrique, d'Asie et d'Océanie,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres ou arbustes, produisant du latex, glabres. Les feuilles sont alternes ou opposées, pétiolées ; les stipules sont petites, caduques ; le limbe foliaire est entier ou serrulé, penninéré[3].
-Les fleurs sont unisexuées (plantes monoïques ou dioïques), sans pétales, sans disque, en thyrses axillaires ou terminales. Les fleurs mâles sont (sub)sessiles ; elles présentent trois sépales, petits, imbriqués, libres, trois étamines, des filaments libres ; les anthères sont déhiscentes longitudinalement, sans pistillode. Les fleurs femelles sont sessiles à pédicellées ; le calice est trilobé ou tripartite ; l'ovaire est tricellulaire, lisse ; il y a un ovule par locule ; les stigmates sont allongés ou recourbés, libres ou légèrement coniques à la base, non divisés, églandulaires[3].
-Les fruits sont des capsules déhiscentes en cocci à deux valves ; la columelle est persistante, ailée. Les graines sont globuleuses, estrophiolées ; l'épisperme est crustacé ; l'endosperme charnu ; le cotylédon est large et aplati[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou arbustes, produisant du latex, glabres. Les feuilles sont alternes ou opposées, pétiolées ; les stipules sont petites, caduques ; le limbe foliaire est entier ou serrulé, penninéré.
+Les fleurs sont unisexuées (plantes monoïques ou dioïques), sans pétales, sans disque, en thyrses axillaires ou terminales. Les fleurs mâles sont (sub)sessiles ; elles présentent trois sépales, petits, imbriqués, libres, trois étamines, des filaments libres ; les anthères sont déhiscentes longitudinalement, sans pistillode. Les fleurs femelles sont sessiles à pédicellées ; le calice est trilobé ou tripartite ; l'ovaire est tricellulaire, lisse ; il y a un ovule par locule ; les stigmates sont allongés ou recourbés, libres ou légèrement coniques à la base, non divisés, églandulaires.
+Les fruits sont des capsules déhiscentes en cocci à deux valves ; la columelle est persistante, ailée. Les graines sont globuleuses, estrophiolées ; l'épisperme est crustacé ; l'endosperme charnu ; le cotylédon est large et aplati.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (4 novembre 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (4 novembre 2021) :
 Excoecaria acerifolia Didr.
 Excoecaria acuminata Gillespie
 Excoecaria agallocha L.
@@ -643,10 +661,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce genre est créé en 1759 pour l'espèce type Excoecaria agallocha, décrite en premier par le naturaliste suédois Carl von Linné, dans son ouvrage Systema Naturae[4].
-Excoecaria a pour synonymes[1],[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce genre est créé en 1759 pour l'espèce type Excoecaria agallocha, décrite en premier par le naturaliste suédois Carl von Linné, dans son ouvrage Systema Naturae.
+Excoecaria a pour synonymes, :
 Commia Lour.
 Glyphostylus Gagnep.
 Taeniosapium Müll.Arg.</t>
